--- a/ch04/models/MobHealthRecycling/data/income-mortaliy-ratios.xlsx
+++ b/ch04/models/MobHealthRecycling/data/income-mortaliy-ratios.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdaza/Documents/github/dissertation/ch04/models/mob_health_testing/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdaza/Documents/git/dissertation/ch04/models/MobHealthRecycling/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07745EF-9597-E642-8CC2-6447F8CF2A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="income-mortality-ratios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,28 +28,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>type</t>
   </si>
   <si>
     <t>ratio</t>
   </si>
-  <si>
-    <t>Type1</t>
-  </si>
-  <si>
-    <t>Type2</t>
-  </si>
-  <si>
-    <t>Type3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +88,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -363,16 +358,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -380,55 +375,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.14921911265537988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="B4">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>-0.11350927482751812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="3"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="3"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
     </row>
